--- a/Salary.xlsx
+++ b/Salary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\backup\todo\CEC Care\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\backup\todo\CEC-Care\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t xml:space="preserve">Kathryn </t>
   </si>
@@ -51,12 +51,6 @@
     <t>Regular</t>
   </si>
   <si>
-    <t>YP 1</t>
-  </si>
-  <si>
-    <t>YP3</t>
-  </si>
-  <si>
     <t>Car</t>
   </si>
   <si>
@@ -144,9 +138,6 @@
     <t>football table</t>
   </si>
   <si>
-    <t>25k</t>
-  </si>
-  <si>
     <t>Staff bedroom</t>
   </si>
   <si>
@@ -162,9 +153,6 @@
     <t>nightstand</t>
   </si>
   <si>
-    <t>night stand</t>
-  </si>
-  <si>
     <t>desk</t>
   </si>
   <si>
@@ -184,6 +172,42 @@
   </si>
   <si>
     <t>lock safe (meds)</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>YP x  1</t>
+  </si>
+  <si>
+    <t>YP x P3</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>0-12</t>
+  </si>
+  <si>
+    <t>tbc</t>
   </si>
 </sst>
 </file>
@@ -207,7 +231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -230,21 +254,372 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -527,304 +902,352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H26"/>
+  <dimension ref="B2:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="18"/>
+    <col min="2" max="2" width="7.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="18"/>
+    <col min="4" max="4" width="11" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="2"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+    </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="19"/>
+      <c r="C5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2">
+        <f>F6/12*H6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2">
+        <f>F7/12*H7</f>
+        <v>22.916666666666668</v>
+      </c>
+      <c r="F7" s="2">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2">
+        <v>7</v>
+      </c>
+      <c r="H7" s="26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="19"/>
+      <c r="C8" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2">
+        <f>F8/12*H8</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="F8" s="2">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="19"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="19"/>
+      <c r="C10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="19"/>
+      <c r="C12" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="19"/>
+      <c r="C13" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="19"/>
+      <c r="C14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2">
-        <v>40</v>
-      </c>
-      <c r="E5" s="2">
-        <v>40</v>
-      </c>
-      <c r="F5" s="2">
-        <f>E5/12*H5</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" ref="F6:F7" si="0">E6/12*H6</f>
-        <v>22.916666666666668</v>
-      </c>
-      <c r="G6" s="2">
-        <v>7</v>
-      </c>
-      <c r="H6" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2">
-        <v>32</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="D14" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="19"/>
+      <c r="C15" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="19"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="19"/>
+      <c r="C17" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="4">
-        <v>3</v>
-      </c>
-      <c r="F12" s="4">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="19"/>
+      <c r="C18" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="19"/>
+      <c r="C19" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="19"/>
+      <c r="C20" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="27"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="19"/>
+      <c r="C21" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="27"/>
+    </row>
+    <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="19"/>
+      <c r="C22" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F26" t="s">
-        <v>39</v>
-      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -834,179 +1257,263 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D34"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D1" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="13">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="6"/>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3">
+      <c r="C6" s="13"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="13">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="6"/>
+      <c r="F10" t="s">
         <v>27</v>
       </c>
-      <c r="C4">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="16"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>50</v>
-      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>